--- a/single_digit/Results/SVM_C_experiment.xlsx
+++ b/single_digit/Results/SVM_C_experiment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Group_Learning\single_digit\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7860531E-6E48-45DF-A359-F800E80745EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA98A22F-8FD2-4024-AFF8-FA43AF2B6E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58A8108D-B1BA-427D-84B9-776C091BB926}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
   <si>
     <t>Training_error</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,31 +485,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DF691B-54E3-418A-8F1B-4992199E0D2A}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="16" max="16" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:20">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -529,32 +537,38 @@
       <c r="I3">
         <v>10000</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3">
         <v>1E-3</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.01</v>
       </c>
-      <c r="L3">
-        <v>0.1</v>
-      </c>
-      <c r="M3">
+      <c r="N3">
+        <v>0.1</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>10</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>100</v>
       </c>
-      <c r="P3" s="1">
+      <c r="R3" s="1">
         <v>1000</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="T3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="B4">
         <v>0</v>
       </c>
@@ -580,31 +594,37 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>0.28399999999999997</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.17100000000000001</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.14899999999999999</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>0.18099999999999999</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.17299999999999999</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R4" s="1">
         <v>0.12</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>0.28199999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="T4">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="B5">
         <v>0</v>
       </c>
@@ -630,31 +650,37 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>0.23</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.224</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.13600000000000001</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.217</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>0.2</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.153</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="1">
         <v>0.19800000000000001</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>0.34499999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="T5">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="B6">
         <v>0</v>
       </c>
@@ -680,31 +706,37 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>0.22900000000000001</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0.17299999999999999</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.14899999999999999</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>0.14299999999999999</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>0.23799999999999999</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
         <v>0.223</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0.24299999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="T6">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="B7">
         <v>0</v>
       </c>
@@ -730,31 +762,37 @@
         <v>0</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>0.29299999999999998</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.19600000000000001</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.14799999999999999</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.2</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>0.222</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.16200000000000001</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>0.14399999999999999</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.25600000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="T7">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="B8">
         <v>0</v>
       </c>
@@ -780,31 +818,37 @@
         <v>0</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>0.223</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.214</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>0.219</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>0.23300000000000001</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>0.21</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R8" s="1">
         <v>0.153</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.16200000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="T8">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="B9">
         <v>0</v>
       </c>
@@ -830,31 +874,37 @@
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>0.23699999999999999</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.27</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.21</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>0.13300000000000001</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>0.192</v>
       </c>
-      <c r="P9" s="1">
+      <c r="R9" s="1">
         <v>0.23100000000000001</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>0.16800000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="T9">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="B10">
         <v>0</v>
       </c>
@@ -880,31 +930,37 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>0.185</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>0.217</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0.248</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>0.155</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>0.14299999999999999</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>0.13900000000000001</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R10" s="1">
         <v>0.13400000000000001</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>0.20899999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="T10">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="B11">
         <v>0</v>
       </c>
@@ -930,31 +986,37 @@
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>0.28599999999999998</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.20200000000000001</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.17199999999999999</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>0.13500000000000001</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>0.14799999999999999</v>
       </c>
-      <c r="P11" s="1">
+      <c r="R11" s="1">
         <v>0.17399999999999999</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>0.16200000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="T11">
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="B12">
         <v>0</v>
       </c>
@@ -980,31 +1042,37 @@
         <v>0</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>0.124</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>0.13100000000000001</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>0.25700000000000001</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>0.185</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>0.155</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>0.109</v>
       </c>
-      <c r="P12" s="1">
+      <c r="R12" s="1">
         <v>0.14399999999999999</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>0.16300000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="T12">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="B13">
         <v>0</v>
       </c>
@@ -1030,31 +1098,37 @@
         <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>0.186</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>0.189</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>0.20899999999999999</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>0.157</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>0.189</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>0.186</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13" s="1">
         <v>0.222</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="T13">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="B14">
         <v>0</v>
       </c>
@@ -1080,31 +1154,37 @@
         <v>0</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>0.19900000000000001</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>0.24299999999999999</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>0.19600000000000001</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>0.17399999999999999</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>0.247</v>
       </c>
-      <c r="P14" s="1">
+      <c r="R14" s="1">
         <v>0.16800000000000001</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>0.29099999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="T14">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="B15">
         <v>0</v>
       </c>
@@ -1130,31 +1210,37 @@
         <v>0</v>
       </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>0.192</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>0.156</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>0.216</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>0.154</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>0.17899999999999999</v>
       </c>
-      <c r="P15" s="1">
+      <c r="R15" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>0.14899999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="T15">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="B16">
         <v>0</v>
       </c>
@@ -1180,31 +1266,37 @@
         <v>0</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>0.20499999999999999</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.17699999999999999</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>0.17399999999999999</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>0.25600000000000001</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>0.22700000000000001</v>
       </c>
-      <c r="P16" s="1">
+      <c r="R16" s="1">
         <v>0.14299999999999999</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>0.251</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="T16">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="B17">
         <v>0</v>
       </c>
@@ -1230,31 +1322,37 @@
         <v>0</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>0.21</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>0.23499999999999999</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>0.19800000000000001</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>0.23300000000000001</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>0.158</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>0.161</v>
       </c>
-      <c r="P17" s="1">
+      <c r="R17" s="1">
         <v>0.16</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="T17">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="B18">
         <v>0</v>
       </c>
@@ -1280,31 +1378,37 @@
         <v>0</v>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>0.22600000000000001</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>0.27600000000000002</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>0.186</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>0.13400000000000001</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>0.2</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>0.2</v>
       </c>
-      <c r="P18" s="1">
+      <c r="R18" s="1">
         <v>0.109</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>0.22800000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="T18">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="B19">
         <v>0</v>
       </c>
@@ -1330,31 +1434,37 @@
         <v>0</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>0.19900000000000001</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>0.27300000000000002</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>0.13400000000000001</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>0.20599999999999999</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>0.14399999999999999</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>0.16300000000000001</v>
       </c>
-      <c r="P19" s="1">
+      <c r="R19" s="1">
         <v>0.193</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="T19">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="B20">
         <v>0</v>
       </c>
@@ -1380,31 +1490,37 @@
         <v>0</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>0.159</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>0.19400000000000001</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>0.24399999999999999</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>0.24099999999999999</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>0.17499999999999999</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>0.26700000000000002</v>
       </c>
-      <c r="P20" s="1">
+      <c r="R20" s="1">
         <v>0.28599999999999998</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>0.17799999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="T20">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="B21">
         <v>0</v>
       </c>
@@ -1430,31 +1546,37 @@
         <v>0</v>
       </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>0.311</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>0.192</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>0.19600000000000001</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>0.156</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>0.14699999999999999</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>0.26100000000000001</v>
       </c>
-      <c r="P21" s="1">
+      <c r="R21" s="1">
         <v>0.161</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>0.25800000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="T21">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="B22">
         <v>0</v>
       </c>
@@ -1480,31 +1602,37 @@
         <v>0</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>0.27500000000000002</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>0.19600000000000001</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>0.114</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>0.23200000000000001</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>0.253</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>0.17899999999999999</v>
       </c>
-      <c r="P22" s="1">
+      <c r="R22" s="1">
         <v>0.186</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="T22">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="B23">
         <v>0.2</v>
       </c>
@@ -1530,36 +1658,42 @@
         <v>0</v>
       </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>0.21199999999999999</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>0.29099999999999998</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>0.14299999999999999</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>0.14499999999999999</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>0.129</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>0.10100000000000001</v>
       </c>
-      <c r="P23" s="1">
+      <c r="R23" s="1">
         <v>0.13300000000000001</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>0.16800000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="T23">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:O24" si="0">AVERAGE(B4:B23)</f>
+        <f t="shared" ref="B24:Q24" si="0">AVERAGE(B4:B23)</f>
         <v>0.01</v>
       </c>
       <c r="C24">
@@ -1587,40 +1721,125 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24" si="1">AVERAGE(I4:I23)</f>
+        <f t="shared" ref="I24:J24" si="1">AVERAGE(I4:I23)</f>
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24" si="2">AVERAGE(J4:J23)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24" si="2">AVERAGE(L4:L23)</f>
         <v>0.21474999999999994</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <f t="shared" si="0"/>
         <v>0.20445000000000008</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <f t="shared" si="0"/>
         <v>0.19345000000000001</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <f t="shared" si="0"/>
         <v>0.18730000000000005</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <f t="shared" si="0"/>
         <v>0.17620000000000002</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <f t="shared" si="0"/>
         <v>0.18474999999999997</v>
       </c>
-      <c r="P24" s="1">
-        <f>AVERAGE(P4:P23)</f>
+      <c r="R24" s="1">
+        <f>AVERAGE(R4:R23)</f>
         <v>0.1711</v>
       </c>
-      <c r="Q24">
-        <f>AVERAGE(Q4:Q23)</f>
+      <c r="S24">
+        <f>AVERAGE(S4:S23)</f>
         <v>0.20419999999999999</v>
+      </c>
+      <c r="T24">
+        <f t="shared" ref="T24" si="3">AVERAGE(T4:T23)</f>
+        <v>0.20820000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <f>STDEV(B4:B23)</f>
+        <v>4.4721359549995801E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:T25" si="4">STDEV(C4:C23)</f>
+        <v>2.2360679774997901E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>2.2360679774997901E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>2.2360679774997901E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>5.8500449840825829E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>4.6586055062816441E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>4.9102979864555439E-2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>3.3798318239070028E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>3.9785741958117196E-2</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>4.6431471858507517E-2</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="4"/>
+        <v>4.388489729424358E-2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>6.1075966502467466E-2</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="4"/>
+        <v>5.3387954486105824E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1634,7 +1853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824806F0-170C-413A-BEFE-67E30EDF2DA9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -7403,10 +7622,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6445E27-CB55-404F-8726-D82039152C21}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -8549,6 +8768,72 @@
       <c r="Q24" s="3">
         <f>AVERAGE(Q4:Q23)</f>
         <v>0.12272727272727268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="B25">
+        <f>STDEV(B4:B23)</f>
+        <v>6.5443828867526657E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:Q25" si="1">STDEV(C4:C23)</f>
+        <v>5.7582892196243254E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>5.1999493924662861E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>7.5393703492505307E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>5.9548741645638108E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>9.2235759323353456E-2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>6.6186411291008274E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>9.3509096746913045E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>9.5948468639102155E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>8.5537712125923107E-2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>5.3968615523329815E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>4.6265933972718908E-2</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>4.5394697442475214E-2</v>
       </c>
     </row>
   </sheetData>
